--- a/data/Rakic-Au-DL.xlsx
+++ b/data/Rakic-Au-DL.xlsx
@@ -1860,9 +1860,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B8F985E-8AF7-46BB-A5A0-106DB4C5E638}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1355365F-C164-47A7-818D-81D3CE1532CC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{410D15A9-5BA2-4DF5-A4ED-766592C936EC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAA546DB-4358-42C5-B9A8-529F1E2E6381}"/>
 </file>
--- a/data/Rakic-Au-DL.xlsx
+++ b/data/Rakic-Au-DL.xlsx
@@ -1860,9 +1860,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1355365F-C164-47A7-818D-81D3CE1532CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62274A89-CF97-4EA5-BE34-FB23A3091DFD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAA546DB-4358-42C5-B9A8-529F1E2E6381}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA299C85-58D0-4DBB-862A-7F508FF2CB98}"/>
 </file>
--- a/data/Rakic-Au-DL.xlsx
+++ b/data/Rakic-Au-DL.xlsx
@@ -515,1091 +515,1091 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.050505050505051</v>
+        <v>3.060606060606061</v>
       </c>
       <c r="B3" t="n">
-        <v>1.79929731649962</v>
+        <v>1.806978358192302</v>
       </c>
       <c r="C3" t="n">
-        <v>19.04953088800625</v>
+        <v>19.10736261049856</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.101010101010101</v>
+        <v>3.121212121212121</v>
       </c>
       <c r="B4" t="n">
-        <v>1.836715249595307</v>
+        <v>1.851026259666882</v>
       </c>
       <c r="C4" t="n">
-        <v>19.33898026125634</v>
+        <v>19.45501560772902</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.151515151515152</v>
+        <v>3.181818181818182</v>
       </c>
       <c r="B5" t="n">
-        <v>1.871858939455407</v>
+        <v>1.892004972531404</v>
       </c>
       <c r="C5" t="n">
-        <v>19.62942657250329</v>
+        <v>19.80433486647132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.202020202020202</v>
+        <v>3.242424242424243</v>
       </c>
       <c r="B6" t="n">
-        <v>1.905097470049988</v>
+        <v>1.930591821031636</v>
       </c>
       <c r="C6" t="n">
-        <v>19.92124866193545</v>
+        <v>20.15588409156793</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.252525252525253</v>
+        <v>3.303030303030303</v>
       </c>
       <c r="B7" t="n">
-        <v>1.936841352003068</v>
+        <v>1.967513260883223</v>
       </c>
       <c r="C7" t="n">
-        <v>20.21471986025582</v>
+        <v>20.51001064311936</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.303030303030303</v>
+        <v>3.363636363636364</v>
       </c>
       <c r="B8" t="n">
-        <v>1.967513260883223</v>
+        <v>2.003480707707018</v>
       </c>
       <c r="C8" t="n">
-        <v>20.51001064311936</v>
+        <v>20.86686509105745</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.353535353535354</v>
+        <v>3.424242424242424</v>
       </c>
       <c r="B9" t="n">
-        <v>1.997523795797708</v>
+        <v>2.039144302063439</v>
       </c>
       <c r="C9" t="n">
-        <v>20.8071986718182</v>
+        <v>21.2264361309377</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.404040404040404</v>
+        <v>3.484848484848485</v>
       </c>
       <c r="B10" t="n">
-        <v>2.027253532889254</v>
+        <v>2.075065496668554</v>
       </c>
       <c r="C10" t="n">
-        <v>21.10628340319231</v>
+        <v>21.58859150138531</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.454545454545455</v>
+        <v>3.545454545454546</v>
       </c>
       <c r="B11" t="n">
-        <v>2.057041472297434</v>
+        <v>2.111705853826306</v>
       </c>
       <c r="C11" t="n">
-        <v>21.40720264785921</v>
+        <v>21.95311775826432</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.505050505050505</v>
+        <v>3.606060606060606</v>
       </c>
       <c r="B12" t="n">
-        <v>2.08717916028119</v>
+        <v>2.14942783428039</v>
       </c>
       <c r="C12" t="n">
-        <v>21.70984900463273</v>
+        <v>22.31975457120195</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.555555555555555</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="B13" t="n">
-        <v>2.117909335712175</v>
+        <v>2.188503213169347</v>
       </c>
       <c r="C13" t="n">
-        <v>22.01408477222814</v>
+        <v>22.68822169051104</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3.606060606060606</v>
+        <v>3.727272727272728</v>
       </c>
       <c r="B14" t="n">
-        <v>2.14942783428039</v>
+        <v>2.229125449741663</v>
       </c>
       <c r="C14" t="n">
-        <v>22.31975457120195</v>
+        <v>23.05823848370407</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.656565656565657</v>
+        <v>3.787878787878788</v>
       </c>
       <c r="B15" t="n">
-        <v>2.18188757990257</v>
+        <v>2.271423332647494</v>
       </c>
       <c r="C15" t="n">
-        <v>22.62669541019879</v>
+        <v>23.42953693868071</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.707070707070707</v>
+        <v>3.848484848484848</v>
       </c>
       <c r="B16" t="n">
-        <v>2.215403700061298</v>
+        <v>2.315474184689446</v>
       </c>
       <c r="C16" t="n">
-        <v>22.9347442748468</v>
+        <v>23.80186944207274</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.757575757575757</v>
+        <v>3.909090909090909</v>
       </c>
       <c r="B17" t="n">
-        <v>2.250059043212147</v>
+        <v>2.361315682563072</v>
       </c>
       <c r="C17" t="n">
-        <v>23.24374351890203</v>
+        <v>24.17501267673829</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.808080808080808</v>
+        <v>3.96969696969697</v>
       </c>
       <c r="B18" t="n">
-        <v>2.285909603634503</v>
+        <v>2.408955891918607</v>
       </c>
       <c r="C18" t="n">
-        <v>23.55354442767983</v>
+        <v>24.5487688205769</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.858585858585859</v>
+        <v>4.03030303030303</v>
       </c>
       <c r="B19" t="n">
-        <v>2.322989548120459</v>
+        <v>2.458381462333858</v>
       </c>
       <c r="C19" t="n">
-        <v>23.86400933892455</v>
+        <v>24.92296499264176</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.909090909090909</v>
+        <v>4.090909090909092</v>
       </c>
       <c r="B20" t="n">
-        <v>2.361315682563072</v>
+        <v>2.509564119068232</v>
       </c>
       <c r="C20" t="n">
-        <v>24.17501267673829</v>
+        <v>25.29745165356893</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3.959595959595959</v>
+        <v>4.151515151515151</v>
       </c>
       <c r="B21" t="n">
-        <v>2.400891297551347</v>
+        <v>2.562465677379012</v>
       </c>
       <c r="C21" t="n">
-        <v>24.48644120292046</v>
+        <v>25.67210045997135</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4.01010101010101</v>
+        <v>4.212121212121212</v>
       </c>
       <c r="B22" t="n">
-        <v>2.441709397786702</v>
+        <v>2.617041830124565</v>
       </c>
       <c r="C22" t="n">
-        <v>24.79819373226945</v>
+        <v>26.04680190794663</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4.060606060606061</v>
+        <v>4.272727272727273</v>
       </c>
       <c r="B23" t="n">
-        <v>2.483755358957727</v>
+        <v>2.67324494863386</v>
       </c>
       <c r="C23" t="n">
-        <v>25.1101805030255</v>
+        <v>26.42146297823163</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.111111111111111</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="B24" t="n">
-        <v>2.527009075450287</v>
+        <v>2.731026108944167</v>
       </c>
       <c r="C24" t="n">
-        <v>25.42232234517562</v>
+        <v>26.79600490848109</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.161616161616161</v>
+        <v>4.393939393939394</v>
       </c>
       <c r="B25" t="n">
-        <v>2.571446669318105</v>
+        <v>2.790336521737158</v>
       </c>
       <c r="C25" t="n">
-        <v>25.73454974940088</v>
+        <v>27.1703611589145</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4.212121212121212</v>
+        <v>4.454545454545455</v>
       </c>
       <c r="B26" t="n">
-        <v>2.617041830124565</v>
+        <v>2.851128510865316</v>
       </c>
       <c r="C26" t="n">
-        <v>26.04680190794663</v>
+        <v>27.54447559893509</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4.262626262626262</v>
+        <v>4.515151515151516</v>
       </c>
       <c r="B27" t="n">
-        <v>2.663766850019086</v>
+        <v>2.913356155297678</v>
       </c>
       <c r="C27" t="n">
-        <v>26.35902577471774</v>
+        <v>27.91830091829192</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4.313131313131313</v>
+        <v>4.575757575757576</v>
       </c>
       <c r="B28" t="n">
-        <v>2.711593411035087</v>
+        <v>2.976975683776333</v>
       </c>
       <c r="C28" t="n">
-        <v>26.67117517419895</v>
+        <v>28.29179725232384</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4.363636363636364</v>
+        <v>4.636363636363637</v>
       </c>
       <c r="B29" t="n">
-        <v>2.760493173553008</v>
+        <v>3.041945690573153</v>
       </c>
       <c r="C29" t="n">
-        <v>26.98320997610151</v>
+        <v>28.66493100341113</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4.414141414141414</v>
+        <v>4.696969696969697</v>
       </c>
       <c r="B30" t="n">
-        <v>2.81043820702763</v>
+        <v>3.108227224068399</v>
       </c>
       <c r="C30" t="n">
-        <v>27.29509534379305</v>
+        <v>29.03767383757911</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4.464646464646465</v>
+        <v>4.757575757575758</v>
       </c>
       <c r="B31" t="n">
-        <v>2.861401296899019</v>
+        <v>3.17578378683325</v>
       </c>
       <c r="C31" t="n">
-        <v>27.60680105860875</v>
+        <v>29.41000183460805</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4.515151515151515</v>
+        <v>4.818181818181818</v>
       </c>
       <c r="B32" t="n">
-        <v>2.913356155297676</v>
+        <v>3.244581275845568</v>
       </c>
       <c r="C32" t="n">
-        <v>27.91830091829191</v>
+        <v>29.78189477091252</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4.565656565656566</v>
+        <v>4.878787878787879</v>
       </c>
       <c r="B33" t="n">
-        <v>2.966277557766794</v>
+        <v>3.314587883807374</v>
       </c>
       <c r="C33" t="n">
-        <v>28.2295722054676</v>
+        <v>30.15333551615039</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4.616161616161616</v>
+        <v>4.939393939393939</v>
       </c>
       <c r="B34" t="n">
-        <v>3.020141423717929</v>
+        <v>3.385773976750472</v>
       </c>
       <c r="C34" t="n">
-        <v>28.54059522075806</v>
+        <v>30.52430952656046</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4.666666666666666</v>
+        <v>5</v>
       </c>
       <c r="B35" t="n">
-        <v>3.074924854626335</v>
+        <v>3.458111958788441</v>
       </c>
       <c r="C35" t="n">
-        <v>28.85135287456766</v>
+        <v>30.89480442013739</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4.717171717171717</v>
+        <v>5.060606060606061</v>
       </c>
       <c r="B36" t="n">
-        <v>3.130606140954911</v>
+        <v>3.531576131658004</v>
       </c>
       <c r="C36" t="n">
-        <v>29.16183033145284</v>
+        <v>31.26480962077802</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4.767676767676767</v>
+        <v>5.121212121212121</v>
       </c>
       <c r="B37" t="n">
-        <v>3.187164746366658</v>
+        <v>3.606142554321719</v>
       </c>
       <c r="C37" t="n">
-        <v>29.47201470117734</v>
+        <v>31.63431606039327</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4.818181818181818</v>
+        <v>5.181818181818182</v>
       </c>
       <c r="B38" t="n">
-        <v>3.244581275845568</v>
+        <v>3.68178890616872</v>
       </c>
       <c r="C38" t="n">
-        <v>29.78189477091252</v>
+        <v>32.00331592964019</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4.868686868686869</v>
+        <v>5.242424242424243</v>
       </c>
       <c r="B39" t="n">
-        <v>3.302837432807345</v>
+        <v>3.75849435609094</v>
       </c>
       <c r="C39" t="n">
-        <v>30.09146077349502</v>
+        <v>32.37180246938011</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4.919191919191919</v>
+        <v>5.303030303030303</v>
       </c>
       <c r="B40" t="n">
-        <v>3.361915969068783</v>
+        <v>3.83623943880722</v>
       </c>
       <c r="C40" t="n">
-        <v>30.40070418714441</v>
+        <v>32.73976979622282</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4.96969696969697</v>
+        <v>5.363636363636363</v>
       </c>
       <c r="B41" t="n">
-        <v>3.421800630593813</v>
+        <v>3.915005939164867</v>
       </c>
       <c r="C41" t="n">
-        <v>30.70961756253591</v>
+        <v>33.10721275658543</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5.02020202020202</v>
+        <v>5.424242424242425</v>
       </c>
       <c r="B42" t="n">
-        <v>3.482476101192822</v>
+        <v>3.994776784698694</v>
       </c>
       <c r="C42" t="n">
-        <v>31.0181943735961</v>
+        <v>33.47412680460224</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5.070707070707071</v>
+        <v>5.484848484848485</v>
       </c>
       <c r="B43" t="n">
-        <v>3.543927945776554</v>
+        <v>4.075535946419449</v>
       </c>
       <c r="C43" t="n">
-        <v>31.32642888883042</v>
+        <v>33.84050789998617</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5.121212121212121</v>
+        <v>5.545454545454546</v>
       </c>
       <c r="B44" t="n">
-        <v>3.606142554321719</v>
+        <v>4.157268347598317</v>
       </c>
       <c r="C44" t="n">
-        <v>31.63431606039327</v>
+        <v>34.20635242258395</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5.171717171717171</v>
+        <v>5.606060606060606</v>
       </c>
       <c r="B45" t="n">
-        <v>3.66910708736461</v>
+        <v>4.239959780183422</v>
       </c>
       <c r="C45" t="n">
-        <v>31.94185142847384</v>
+        <v>34.57165710090474</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5.222222222222221</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="B46" t="n">
-        <v>3.732809423578938</v>
+        <v>4.323596828406546</v>
       </c>
       <c r="C46" t="n">
-        <v>32.24903103889172</v>
+        <v>34.93641895235077</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5.272727272727272</v>
+        <v>5.727272727272728</v>
       </c>
       <c r="B47" t="n">
-        <v>3.79723810979716</v>
+        <v>4.408166799098288</v>
       </c>
       <c r="C47" t="n">
-        <v>32.55585137208047</v>
+        <v>35.30063523325292</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5.323232323232324</v>
+        <v>5.787878787878788</v>
       </c>
       <c r="B48" t="n">
-        <v>3.862382313686737</v>
+        <v>4.493657658216038</v>
       </c>
       <c r="C48" t="n">
-        <v>32.86230928188553</v>
+        <v>35.6643033971264</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5.373737373737374</v>
+        <v>5.848484848484849</v>
       </c>
       <c r="B49" t="n">
-        <v>3.928231779182857</v>
+        <v>4.580057973093148</v>
       </c>
       <c r="C49" t="n">
-        <v>33.16840194281904</v>
+        <v>36.02742105982188</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5.424242424242425</v>
+        <v>5.909090909090909</v>
       </c>
       <c r="B50" t="n">
-        <v>3.994776784698694</v>
+        <v>4.667356859933387</v>
       </c>
       <c r="C50" t="n">
-        <v>33.47412680460224</v>
+        <v>36.38998597046368</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5.474747474747475</v>
+        <v>5.96969696969697</v>
       </c>
       <c r="B51" t="n">
-        <v>4.062008104076337</v>
+        <v>4.755543936098071</v>
       </c>
       <c r="C51" t="n">
-        <v>33.77948155298841</v>
+        <v>36.75199598724795</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5.525252525252525</v>
+        <v>6.030303030303031</v>
       </c>
       <c r="B52" t="n">
-        <v>4.129916970200744</v>
+        <v>4.84460927676075</v>
       </c>
       <c r="C52" t="n">
-        <v>34.08446407599985</v>
+        <v>37.11344905732342</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5.575757575757575</v>
+        <v>6.090909090909091</v>
       </c>
       <c r="B53" t="n">
-        <v>4.198495041171582</v>
+        <v>4.934543375533974</v>
       </c>
       <c r="C53" t="n">
-        <v>34.38907243483303</v>
+        <v>37.47434320010345</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5.626262626262625</v>
+        <v>6.151515151515151</v>
       </c>
       <c r="B54" t="n">
-        <v>4.267734368910065</v>
+        <v>5.025337108703011</v>
       </c>
       <c r="C54" t="n">
-        <v>34.69330483879033</v>
+        <v>37.83467649346276</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5.676767676767676</v>
+        <v>6.212121212121213</v>
       </c>
       <c r="B55" t="n">
-        <v>4.337627370067592</v>
+        <v>5.116981702731153</v>
       </c>
       <c r="C55" t="n">
-        <v>34.9971596236863</v>
+        <v>38.19444706235938</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5.727272727272727</v>
+        <v>6.272727272727272</v>
       </c>
       <c r="B56" t="n">
-        <v>4.408166799098286</v>
+        <v>5.209468704730151</v>
       </c>
       <c r="C56" t="n">
-        <v>35.30063523325291</v>
+        <v>38.55365306949622</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5.777777777777778</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="B57" t="n">
-        <v>4.47934572335669</v>
+        <v>5.302789955616495</v>
       </c>
       <c r="C57" t="n">
-        <v>35.60373020313479</v>
+        <v>38.91229270769728</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5.828282828282828</v>
+        <v>6.393939393939394</v>
       </c>
       <c r="B58" t="n">
-        <v>4.551157500084011</v>
+        <v>5.396937565699788</v>
       </c>
       <c r="C58" t="n">
-        <v>35.90644314712168</v>
+        <v>39.27036419372506</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5.878787878787879</v>
+        <v>6.454545454545455</v>
       </c>
       <c r="B59" t="n">
-        <v>4.623595755150392</v>
+        <v>5.491903892473256</v>
       </c>
       <c r="C59" t="n">
-        <v>36.2087727453146</v>
+        <v>39.62786576330883</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5.929292929292929</v>
+        <v>6.515151515151516</v>
       </c>
       <c r="B60" t="n">
-        <v>4.696654363426203</v>
+        <v>5.587681520398027</v>
       </c>
       <c r="C60" t="n">
-        <v>36.51071773396348</v>
+        <v>39.98479566718939</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5.979797979797979</v>
+        <v>6.575757575757576</v>
       </c>
       <c r="B61" t="n">
-        <v>4.770327430661643</v>
+        <v>5.684263242493022</v>
       </c>
       <c r="C61" t="n">
-        <v>36.8122768967504</v>
+        <v>40.34115216801636</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>6.03030303030303</v>
+        <v>6.636363636363637</v>
       </c>
       <c r="B62" t="n">
-        <v>4.844609276760749</v>
+        <v>5.781642043560289</v>
       </c>
       <c r="C62" t="n">
-        <v>37.11344905732341</v>
+        <v>40.69693353795957</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>6.08080808080808</v>
+        <v>6.696969696969697</v>
       </c>
       <c r="B63" t="n">
-        <v>4.919494420343002</v>
+        <v>5.879811084892267</v>
       </c>
       <c r="C63" t="n">
-        <v>37.41423307291222</v>
+        <v>41.05213805691736</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>6.131313131313131</v>
+        <v>6.757575757575758</v>
       </c>
       <c r="B64" t="n">
-        <v>4.994977564492719</v>
+        <v>5.97876369032236</v>
       </c>
       <c r="C64" t="n">
-        <v>37.71462782888035</v>
+        <v>41.40676401122334</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>6.181818181818182</v>
+        <v>6.818181818181818</v>
       </c>
       <c r="B65" t="n">
-        <v>5.071053583603362</v>
+        <v>6.078493333493893</v>
       </c>
       <c r="C65" t="n">
-        <v>38.01463223408761</v>
+        <v>41.76080969276762</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>6.232323232323232</v>
+        <v>6.878787878787879</v>
       </c>
       <c r="B66" t="n">
-        <v>5.147717511230606</v>
+        <v>6.178993626234543</v>
       </c>
       <c r="C66" t="n">
-        <v>38.3142452169541</v>
+        <v>42.11427339846205</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>6.282828282828282</v>
+        <v>6.93939393939394</v>
       </c>
       <c r="B67" t="n">
-        <v>5.224964528874422</v>
+        <v>6.280258307934527</v>
       </c>
       <c r="C67" t="n">
-        <v>38.61346572213105</v>
+        <v>42.46715342998959</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>6.333333333333332</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="B68" t="n">
-        <v>5.302789955616495</v>
+        <v>6.382281235836719</v>
       </c>
       <c r="C68" t="n">
-        <v>38.91229270769728</v>
+        <v>42.81944809378749</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>6.383838383838384</v>
+        <v>7.060606060606061</v>
       </c>
       <c r="B69" t="n">
-        <v>5.381189238545032</v>
+        <v>6.485056376155678</v>
       </c>
       <c r="C69" t="n">
-        <v>39.21072514280976</v>
+        <v>43.171155701221</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>6.434343434343434</v>
+        <v>7.121212121212121</v>
       </c>
       <c r="B70" t="n">
-        <v>5.460157943904396</v>
+        <v>6.58857779595085</v>
       </c>
       <c r="C70" t="n">
-        <v>39.50876200574738</v>
+        <v>43.5222745689122</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>6.484848484848485</v>
+        <v>7.181818181818183</v>
       </c>
       <c r="B71" t="n">
-        <v>5.539691748911945</v>
+        <v>6.692839655686187</v>
       </c>
       <c r="C71" t="n">
-        <v>39.80640228229434</v>
+        <v>43.87280301919287</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>6.535353535353535</v>
+        <v>7.242424242424242</v>
       </c>
       <c r="B72" t="n">
-        <v>5.61978643418914</v>
+        <v>6.797836202415077</v>
       </c>
       <c r="C72" t="n">
-        <v>40.10364496441674</v>
+        <v>44.22273938065582</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>6.585858585858586</v>
+        <v>7.303030303030303</v>
       </c>
       <c r="B73" t="n">
-        <v>5.700437876758303</v>
+        <v>6.903561763535305</v>
       </c>
       <c r="C73" t="n">
-        <v>40.40048904919254</v>
+        <v>44.57208198878318</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>6.636363636363636</v>
+        <v>7.363636363636364</v>
       </c>
       <c r="B74" t="n">
-        <v>5.781642043560289</v>
+        <v>7.010010741063958</v>
       </c>
       <c r="C74" t="n">
-        <v>40.69693353795957</v>
+        <v>44.92082918663289</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>6.686868686868686</v>
+        <v>7.424242424242425</v>
       </c>
       <c r="B75" t="n">
-        <v>5.863394985452097</v>
+        <v>7.117177606386993</v>
       </c>
       <c r="C75" t="n">
-        <v>40.99297743565151</v>
+        <v>45.26897932556852</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>6.737373737373737</v>
+        <v>7.484848484848485</v>
       </c>
       <c r="B76" t="n">
-        <v>5.945692831646736</v>
+        <v>7.225056895442417</v>
       </c>
       <c r="C76" t="n">
-        <v>41.28861975029535</v>
+        <v>45.61653076601914</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>6.787878787878787</v>
+        <v>7.545454545454546</v>
       </c>
       <c r="B77" t="n">
-        <v>6.02853178456077</v>
+        <v>7.333643204299838</v>
       </c>
       <c r="C77" t="n">
-        <v>41.58385949264721</v>
+        <v>45.96348187825875</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>6.838383838383837</v>
+        <v>7.606060606060606</v>
       </c>
       <c r="B78" t="n">
-        <v>6.111908115037915</v>
+        <v>7.442931185102623</v>
       </c>
       <c r="C78" t="n">
-        <v>41.87869567594702</v>
+        <v>46.30983104319593</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>6.888888888888888</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="B79" t="n">
-        <v>6.195818157919395</v>
+        <v>7.552915542341987</v>
       </c>
       <c r="C79" t="n">
-        <v>42.17312731577422</v>
+        <v>46.65557665316657</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>6.939393939393939</v>
+        <v>7.727272727272728</v>
       </c>
       <c r="B80" t="n">
-        <v>6.280258307934527</v>
+        <v>7.663591029435191</v>
       </c>
       <c r="C80" t="n">
-        <v>42.46715342998959</v>
+        <v>47.00071711272325</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>6.98989898989899</v>
+        <v>7.787878787878789</v>
       </c>
       <c r="B81" t="n">
-        <v>6.365225015886864</v>
+        <v>7.774952445582468</v>
       </c>
       <c r="C81" t="n">
-        <v>42.76077303875032</v>
+        <v>47.34525083941632</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>7.04040404040404</v>
+        <v>7.848484848484849</v>
       </c>
       <c r="B82" t="n">
-        <v>6.450714785113398</v>
+        <v>7.886994632879663</v>
       </c>
       <c r="C82" t="n">
-        <v>43.05398516458631</v>
+        <v>47.68917626456228</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>7.090909090909091</v>
+        <v>7.909090909090909</v>
       </c>
       <c r="B83" t="n">
-        <v>6.536724168196129</v>
+        <v>7.99971247366556</v>
       </c>
       <c r="C83" t="n">
-        <v>43.34678883252851</v>
+        <v>48.03249183399662</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>7.141414141414141</v>
+        <v>7.969696969696971</v>
       </c>
       <c r="B84" t="n">
-        <v>6.623249763907012</v>
+        <v>8.113100888084851</v>
       </c>
       <c r="C84" t="n">
-        <v>43.63918307028013</v>
+        <v>48.37519600880768</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>7.191919191919191</v>
+        <v>8.030303030303031</v>
       </c>
       <c r="B85" t="n">
-        <v>6.710288214368687</v>
+        <v>8.227154831849152</v>
       </c>
       <c r="C85" t="n">
-        <v>43.93116690842344</v>
+        <v>48.71728726604999</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>7.242424242424242</v>
+        <v>8.09090909090909</v>
       </c>
       <c r="B86" t="n">
-        <v>6.797836202415077</v>
+        <v>8.341869294180334</v>
       </c>
       <c r="C86" t="n">
-        <v>44.22273938065582</v>
+        <v>49.05876409943529</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>7.292929292929292</v>
+        <v>8.151515151515152</v>
       </c>
       <c r="B87" t="n">
-        <v>6.885890449136911</v>
+        <v>8.457239295921468</v>
       </c>
       <c r="C87" t="n">
-        <v>44.51389952404903</v>
+        <v>49.39962501999975</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>7.343434343434343</v>
+        <v>8.212121212121213</v>
       </c>
       <c r="B88" t="n">
-        <v>6.974447711598659</v>
+        <v>8.573259887802164</v>
       </c>
       <c r="C88" t="n">
-        <v>44.80464637932732</v>
+        <v>49.7398685567468</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>7.393939393939393</v>
+        <v>8.272727272727272</v>
       </c>
       <c r="B89" t="n">
-        <v>7.063504780714333</v>
+        <v>8.689926148846206</v>
       </c>
       <c r="C89" t="n">
-        <v>45.09497899115966</v>
+        <v>50.07949325726484</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>7.444444444444445</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>7.153058479270567</v>
+        <v>8.80723318491018</v>
       </c>
       <c r="C90" t="n">
-        <v>45.38489640846303</v>
+        <v>50.41849768831934</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>7.494949494949495</v>
+        <v>8.393939393939396</v>
       </c>
       <c r="B91" t="n">
-        <v>7.243105660086377</v>
+        <v>8.92517612734312</v>
       </c>
       <c r="C91" t="n">
-        <v>45.67439768471284</v>
+        <v>50.75688043641935</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>7.545454545454545</v>
+        <v>8.454545454545455</v>
       </c>
       <c r="B92" t="n">
-        <v>7.333643204299835</v>
+        <v>9.04375013175763</v>
       </c>
       <c r="C92" t="n">
-        <v>45.96348187825873</v>
+        <v>51.09464010835825</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>7.595959595959596</v>
+        <v>8.515151515151516</v>
       </c>
       <c r="B93" t="n">
-        <v>7.424668019772522</v>
+        <v>9.162950376904064</v>
       </c>
       <c r="C93" t="n">
-        <v>46.25214805264253</v>
+        <v>51.43177533172899</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>7.646464646464646</v>
+        <v>8.575757575757576</v>
       </c>
       <c r="B94" t="n">
-        <v>7.516177039603457</v>
+        <v>9.282772063639772</v>
       </c>
       <c r="C94" t="n">
-        <v>46.54039527691702</v>
+        <v>51.7682847554141</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>7.696969696969696</v>
+        <v>8.636363636363637</v>
       </c>
       <c r="B95" t="n">
-        <v>7.608167220744845</v>
+        <v>9.403210413986262</v>
       </c>
       <c r="C95" t="n">
-        <v>46.82822262596346</v>
+        <v>52.10416705005045</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>7.747474747474747</v>
+        <v>8.696969696969697</v>
       </c>
       <c r="B96" t="n">
-        <v>7.700635542712449</v>
+        <v>9.524260670267592</v>
       </c>
       <c r="C96" t="n">
-        <v>47.11562918080663</v>
+        <v>52.43942090846982</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>7.797979797979797</v>
+        <v>8.757575757575758</v>
       </c>
       <c r="B97" t="n">
-        <v>7.793579006383998</v>
+        <v>9.64591809432388</v>
       </c>
       <c r="C97" t="n">
-        <v>47.40261402892602</v>
+        <v>52.7740450461152</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>7.848484848484847</v>
+        <v>8.818181818181818</v>
       </c>
       <c r="B98" t="n">
-        <v>7.886994632879657</v>
+        <v>9.768177966794306</v>
       </c>
       <c r="C98" t="n">
-        <v>47.68917626456226</v>
+        <v>53.10803820143337</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>7.898989898989897</v>
+        <v>8.878787878787879</v>
       </c>
       <c r="B99" t="n">
-        <v>7.980879462518801</v>
+        <v>9.891035586464412</v>
       </c>
       <c r="C99" t="n">
-        <v>47.97531498901791</v>
+        <v>53.44139913624492</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>7.949494949494949</v>
+        <v>8.939393939393939</v>
       </c>
       <c r="B100" t="n">
-        <v>8.075230553847945</v>
+        <v>10.0144862696729</v>
       </c>
       <c r="C100" t="n">
-        <v>48.26102931095175</v>
+        <v>53.77412663609137</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B101" t="n">
-        <v>8.170044982734982</v>
+        <v>10.13852534977362</v>
       </c>
       <c r="C101" t="n">
-        <v>48.54631834666629</v>
+        <v>54.10621951056078</v>
       </c>
     </row>
   </sheetData>
@@ -1859,10 +1859,25 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="82356154-5183-4f37-90d3-f4f98cf6a93f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="baefc347-5ba3-4b33-a24e-4e757a4ca6a9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62274A89-CF97-4EA5-BE34-FB23A3091DFD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40439B44-4080-4647-A8F0-E4CE27F74576}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA299C85-58D0-4DBB-862A-7F508FF2CB98}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F035FF34-FC79-4F6A-B1E3-D52F51190584}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{590C2B2B-6229-4E63-841B-2E6867CCA033}"/>
 </file>